--- a/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
   <si>
     <t>CLOV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,37 +711,49 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>200300</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +781,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +816,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +835,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +866,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +901,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,37 +936,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +987,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>319400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,19 +1018,25 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>-119100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1053,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,19 +1072,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1036,13 +1103,19 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-47100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1065,54 +1138,66 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1208,14 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1243,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,25 +1278,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1210,25 +1313,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1348,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1383,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1418,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1453,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,19 +1488,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1384,25 +1523,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1558,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,25 +1593,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1471,31 +1628,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1668,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1687,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,25 +1702,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>404500</v>
       </c>
       <c r="E41" s="3">
-        <v>800</v>
+        <v>28000</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1560,66 +1733,84 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>280100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>49400</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,23 +1838,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,26 +1873,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>809400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,22 +1908,28 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>828100</v>
+        <v>35500</v>
       </c>
       <c r="E47" s="3">
         <v>828100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>828100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>828100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1734,66 +1943,84 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>9100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>4200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2048,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,26 +2083,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +2118,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,26 +2153,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>866900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>856400</v>
+      </c>
+      <c r="F54" s="3">
         <v>828700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>829200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2188,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2207,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,55 +2222,63 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>18300</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="D58" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,26 +2288,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,26 +2323,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,13 +2358,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2108,22 +2393,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29000</v>
+        <v>80700</v>
       </c>
       <c r="E62" s="3">
         <v>29000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>29000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>29000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2428,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2463,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2498,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,26 +2533,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>281900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>62900</v>
+      </c>
+      <c r="F66" s="3">
         <v>30800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>29100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2568,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2587,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2618,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2653,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2688,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,25 +2723,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1077400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2758,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2793,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2828,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,25 +2863,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>585000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>793500</v>
+      </c>
+      <c r="F76" s="3">
         <v>797900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>800200</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2898,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2933,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,25 +2973,31 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +3008,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3027,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3093,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3128,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3163,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3198,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,20 +3233,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3268,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3287,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3353,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,13 +3388,19 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-257500</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2949,23 +3408,29 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3442,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3473,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3508,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3543,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,26 +3578,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>662500</v>
       </c>
       <c r="E100" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>829200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3613,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,26 +3648,32 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>312200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3681,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>CLOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,17 +718,20 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>412500</v>
+      </c>
+      <c r="E8" s="3">
         <v>200300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -743,8 +747,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -752,8 +756,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,17 +962,20 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
@@ -968,8 +991,8 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,28 +1015,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>594300</v>
+      </c>
+      <c r="E17" s="3">
         <v>319400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1024,17 +1051,20 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-181800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-119100</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,17 +1107,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-134500</v>
+      </c>
+      <c r="E20" s="3">
         <v>71900</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,17 +1143,20 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-316300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-47100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,16 +1181,19 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>1200</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1170,8 +1210,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1179,28 +1219,31 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-317600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-48400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1214,8 +1257,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,28 +1333,31 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-317600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-48400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1319,28 +1371,31 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-317600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-48400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,17 +1561,20 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>134500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-71900</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,28 +1599,31 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-317600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-48400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,28 +1675,31 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-317600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-48400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1634,34 +1713,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,29 +1790,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>485700</v>
+      </c>
+      <c r="E41" s="3">
         <v>404500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,17 +1826,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E42" s="3">
         <v>280100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,8 +1855,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1774,17 +1864,20 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E43" s="3">
         <v>49400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,8 +1893,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1809,8 +1902,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,26 +1940,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E45" s="3">
         <v>75400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,29 +1978,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>717700</v>
+      </c>
+      <c r="E46" s="3">
         <v>809400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,16 +2016,19 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E47" s="3">
         <v>35500</v>
-      </c>
-      <c r="E47" s="3">
-        <v>828100</v>
       </c>
       <c r="F47" s="3">
         <v>828100</v>
@@ -1931,8 +2036,8 @@
       <c r="G47" s="3">
         <v>828100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>828100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1949,17 +2054,20 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E48" s="3">
         <v>9100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1975,8 +2083,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1984,16 +2092,19 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>4200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+      <c r="E49" s="3">
+        <v>4200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2010,8 +2121,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,17 +2206,20 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E52" s="3">
         <v>8600</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -2107,11 +2227,11 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,29 +2282,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1215900</v>
+      </c>
+      <c r="E54" s="3">
         <v>866900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>856400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>828700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>829200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,17 +2354,18 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E57" s="3">
         <v>18300</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2381,8 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2259,29 +2390,32 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>21400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,29 +2428,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>175100</v>
+      </c>
+      <c r="E59" s="3">
         <v>133300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,29 +2466,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>195900</v>
+      </c>
+      <c r="E60" s="3">
         <v>173000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,17 +2504,20 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E61" s="3">
         <v>24300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2399,16 +2542,19 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>685300</v>
+      </c>
+      <c r="E62" s="3">
         <v>80700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>29000</v>
       </c>
       <c r="F62" s="3">
         <v>29000</v>
@@ -2416,8 +2562,8 @@
       <c r="G62" s="3">
         <v>29000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>29000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,29 +2694,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>904900</v>
+      </c>
+      <c r="E66" s="3">
         <v>281900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,28 +2900,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1395000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1077400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,28 +3052,31 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E76" s="3">
         <v>585000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>793500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>797900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800200</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,34 +3128,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,28 +3171,31 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-317600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-48400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,17 +3227,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3254,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,23 +3453,26 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-92900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,17 +3509,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,8 +3536,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,22 +3621,25 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>170900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-257500</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3420,8 +3650,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3429,8 +3659,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,29 +3827,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E100" s="3">
         <v>662500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>29000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>829200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,29 +3903,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E102" s="3">
         <v>312200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>CLOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,20 +722,23 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>427200</v>
+      </c>
+      <c r="E8" s="3">
         <v>412500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200300</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -750,8 +754,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -759,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -974,11 +997,11 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1017,8 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,31 +1042,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>576400</v>
+      </c>
+      <c r="E17" s="3">
         <v>594300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>319400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1054,20 +1081,23 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-181800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-119100</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,20 +1141,21 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-134500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>71900</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,20 +1180,23 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-316300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-47100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,19 +1221,22 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>1200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1213,8 +1253,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1222,31 +1262,34 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-317600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-48400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,31 +1385,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-317600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-48400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1374,31 +1426,34 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-317600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-48400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,20 +1631,23 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-115100</v>
+      </c>
+      <c r="E32" s="3">
         <v>134500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-71900</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,31 +1672,34 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-317600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-48400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,31 +1754,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-317600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-48400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,32 +1877,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>202300</v>
+      </c>
+      <c r="E41" s="3">
         <v>485700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>404500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,20 +1916,23 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E42" s="3">
         <v>121400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>280100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1858,8 +1948,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1867,20 +1957,23 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E43" s="3">
         <v>55500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,8 +1989,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,29 +2039,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E45" s="3">
         <v>55100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>75400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,32 +2080,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>559300</v>
+      </c>
+      <c r="E46" s="3">
         <v>717700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>809400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,19 +2121,22 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>367300</v>
+      </c>
+      <c r="E47" s="3">
         <v>475000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>35500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>828100</v>
       </c>
       <c r="G47" s="3">
         <v>828100</v>
@@ -2039,8 +2144,8 @@
       <c r="H47" s="3">
         <v>828100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>828100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2057,20 +2162,23 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,8 +2194,8 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2106,8 +2217,8 @@
       <c r="E49" s="3">
         <v>4200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>4200</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2124,8 +2235,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,20 +2326,23 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E52" s="3">
         <v>10500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8600</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -2230,11 +2350,11 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2408,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>952500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1215900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>866900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>856400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>828700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>829200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,20 +2485,21 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E57" s="3">
         <v>20800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,8 +2515,8 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2393,32 +2524,35 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>21400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,32 +2565,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E59" s="3">
         <v>175100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>133300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,32 +2606,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>230200</v>
+      </c>
+      <c r="E60" s="3">
         <v>195900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>173000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2516,11 +2659,11 @@
         <v>19900</v>
       </c>
       <c r="E61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F61" s="3">
         <v>24300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2545,19 +2688,22 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E62" s="3">
         <v>685300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>80700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>29000</v>
       </c>
       <c r="G62" s="3">
         <v>29000</v>
@@ -2565,8 +2711,8 @@
       <c r="H62" s="3">
         <v>29000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>29000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,32 +2852,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>544100</v>
+      </c>
+      <c r="E66" s="3">
         <v>904900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>281900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,31 +3074,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1429500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1395000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1077400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,31 +3238,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>408400</v>
+      </c>
+      <c r="E76" s="3">
         <v>311000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>585000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>793500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>797900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>800200</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,31 +3366,34 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-317600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-48400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3237,11 +3436,11 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3257,8 +3456,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,26 +3670,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-64200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-92900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3730,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3519,11 +3740,11 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3760,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,25 +3851,28 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-242300</v>
+      </c>
+      <c r="E94" s="3">
         <v>170900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-257500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3653,8 +3883,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,32 +4073,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>662500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>29000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>829200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,32 +4155,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-283500</v>
+      </c>
+      <c r="E102" s="3">
         <v>81200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>312200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="92">
   <si>
     <t>CLOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,23 +725,26 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E8" s="3">
         <v>427200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>412500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,8 +760,8 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -766,8 +769,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +877,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,23 +1007,26 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1020,8 +1042,8 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1029,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,34 +1068,35 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>618800</v>
+      </c>
+      <c r="E17" s="3">
         <v>576400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>594300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>319400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1084,23 +1110,26 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-186800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-149200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-181800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-119100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,23 +1174,24 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>115100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-134500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>71900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,23 +1216,26 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-185900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-34000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-316300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-47100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1233,13 +1272,13 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>1200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1295,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1265,34 +1304,37 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-187200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-317600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-48400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1306,8 +1348,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1392,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,34 +1436,37 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-187200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-317600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-48400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1429,34 +1480,37 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-187200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-317600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-48400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,23 +1700,26 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-115100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>134500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-71900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,34 +1744,37 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-187200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-317600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-48400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,34 +1832,37 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-187200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-317600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-48400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1798,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,35 +1963,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E41" s="3">
         <v>202300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>485700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>404500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,23 +2005,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>327900</v>
+      </c>
+      <c r="E42" s="3">
         <v>253000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>121400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>280100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,8 +2040,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1960,23 +2049,26 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E43" s="3">
         <v>55800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2084,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2001,8 +2093,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,32 +2137,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E45" s="3">
         <v>48200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>55100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>75400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,35 +2181,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>752500</v>
+      </c>
+      <c r="E46" s="3">
         <v>559300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>717700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>809400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,22 +2225,25 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E47" s="3">
         <v>367300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>475000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>35500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>828100</v>
       </c>
       <c r="H47" s="3">
         <v>828100</v>
@@ -2147,8 +2251,8 @@
       <c r="I47" s="3">
         <v>828100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>828100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2165,23 +2269,26 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E48" s="3">
         <v>8000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2304,8 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2206,8 +2313,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2220,8 +2330,8 @@
       <c r="F49" s="3">
         <v>4200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>4200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2238,8 +2348,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2247,8 +2357,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,23 +2445,26 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E52" s="3">
         <v>13700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8600</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
@@ -2353,11 +2472,11 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2533,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>950800</v>
+      </c>
+      <c r="E54" s="3">
         <v>952500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1215900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>866900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>856400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>828700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>829200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,23 +2615,24 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E57" s="3">
         <v>24200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,8 +2648,8 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2527,8 +2657,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,24 +2671,24 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>21400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,35 +2701,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>344500</v>
+      </c>
+      <c r="E59" s="3">
         <v>206000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>175100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>133300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,35 +2745,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>372600</v>
+      </c>
+      <c r="E60" s="3">
         <v>230200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>195900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>173000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2789,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2662,11 +2804,11 @@
         <v>19900</v>
       </c>
       <c r="F61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="G61" s="3">
         <v>24300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2691,22 +2833,25 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E62" s="3">
         <v>290000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>685300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>80700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>29000</v>
       </c>
       <c r="H62" s="3">
         <v>29000</v>
@@ -2714,8 +2859,8 @@
       <c r="I62" s="3">
         <v>29000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>29000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2732,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3009,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>415400</v>
+      </c>
+      <c r="E66" s="3">
         <v>544100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>904900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>281900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,34 +3247,37 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1616700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1429500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1395000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1077400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,34 +3423,37 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>535400</v>
+      </c>
+      <c r="E76" s="3">
         <v>408400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>311000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>585000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>793500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>797900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>800200</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,34 +3560,37 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-187200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-317600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-48400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,23 +3624,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3459,8 +3657,8 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,29 +3886,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-45100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-64200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-92900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3950,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3743,11 +3963,11 @@
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3763,8 +3983,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,28 +4080,31 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-242300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>170900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-257500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3886,8 +4115,8 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3895,8 +4124,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,35 +4318,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>284400</v>
+      </c>
+      <c r="E100" s="3">
         <v>4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>662500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>29000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>829200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,35 +4406,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-283500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>81200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>312200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
   <si>
     <t>CLOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,26 +729,29 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>874400</v>
+      </c>
+      <c r="E8" s="3">
         <v>432000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>427200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>412500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -763,8 +767,8 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -772,8 +776,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1019,17 +1042,17 @@
         <v>800</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1045,8 +1068,8 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,37 +1095,38 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>961700</v>
+      </c>
+      <c r="E17" s="3">
         <v>618800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>576400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>594300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>319400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1113,26 +1140,29 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-186800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-149200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-181800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-119100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,26 +1208,27 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>115100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-134500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>71900</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,26 +1253,29 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-185900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-34000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-316300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-47100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,13 +1315,13 @@
         <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>1200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1338,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1307,37 +1347,40 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-187200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-317600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-48400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1351,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,37 +1488,40 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-187200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-317600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-48400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1483,37 +1535,40 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-187200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-317600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-48400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,26 +1770,29 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-12400</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-115100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>134500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-71900</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,37 +1817,40 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-187200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-317600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-48400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,37 +1911,40 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-187200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-317600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-48400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1879,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,38 +2050,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>273800</v>
+      </c>
+      <c r="E41" s="3">
         <v>300000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>202300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>485700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>404500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,26 +2095,29 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>304700</v>
+      </c>
+      <c r="E42" s="3">
         <v>327900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>253000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>121400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>280100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,8 +2133,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2052,26 +2142,29 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1816100</v>
+      </c>
+      <c r="E43" s="3">
         <v>62300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>55500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,8 +2180,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,35 +2236,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E45" s="3">
         <v>62400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>48200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>55100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>75400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,38 +2283,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2491400</v>
+      </c>
+      <c r="E46" s="3">
         <v>752500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>559300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>717700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>809400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,25 +2330,28 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E47" s="3">
         <v>175900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>367300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>475000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>35500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>828100</v>
       </c>
       <c r="I47" s="3">
         <v>828100</v>
@@ -2254,8 +2359,8 @@
       <c r="J47" s="3">
         <v>828100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>828100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2272,26 +2377,29 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E48" s="3">
         <v>7700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2307,8 +2415,8 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2316,8 +2424,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2333,8 +2444,8 @@
       <c r="G49" s="3">
         <v>4200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>4200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2351,8 +2462,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,26 +2565,29 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E52" s="3">
         <v>10400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8600</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
@@ -2475,11 +2595,11 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,38 +2659,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2679900</v>
+      </c>
+      <c r="E54" s="3">
         <v>950800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>952500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1215900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>866900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>856400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>828700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>829200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,26 +2746,27 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E57" s="3">
         <v>28100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2782,8 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2660,8 +2791,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2674,24 +2808,24 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>21400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,38 +2838,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2124600</v>
+      </c>
+      <c r="E59" s="3">
         <v>344500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>206000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>175100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>133300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,38 +2885,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2152000</v>
+      </c>
+      <c r="E60" s="3">
         <v>372600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>230200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>195900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>173000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2932,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2807,11 +2950,11 @@
         <v>19900</v>
       </c>
       <c r="G61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="H61" s="3">
         <v>24300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2836,25 +2979,28 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E62" s="3">
         <v>18900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>290000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>685300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>80700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>29000</v>
       </c>
       <c r="I62" s="3">
         <v>29000</v>
@@ -2862,8 +3008,8 @@
       <c r="J62" s="3">
         <v>29000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>29000</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,38 +3167,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2190100</v>
+      </c>
+      <c r="E66" s="3">
         <v>415400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>544100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>904900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>281900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,37 +3421,40 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1692000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1616700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1429500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1395000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1077400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,37 +3609,40 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>489800</v>
+      </c>
+      <c r="E76" s="3">
         <v>535400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>408400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>311000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>585000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>793500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>797900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>800200</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,37 +3755,40 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-187200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-317600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-48400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3634,17 +3833,17 @@
         <v>800</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3859,8 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,32 +4103,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-80200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-45100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-64200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-92900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3966,11 +4187,11 @@
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3986,8 +4207,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,31 +4310,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-106500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-242300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>170900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-257500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4118,8 +4348,8 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,38 +4564,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E100" s="3">
         <v>284400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>662500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>29000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>829200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,38 +4658,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E102" s="3">
         <v>97700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-283500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>81200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>312200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>27900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="92">
   <si>
     <t>CLOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,29 +733,32 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>846700</v>
+      </c>
+      <c r="E8" s="3">
         <v>874400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>432000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>427200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>412500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -770,8 +774,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,29 +1053,32 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
       <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1094,8 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,40 +1122,41 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>949200</v>
+      </c>
+      <c r="E17" s="3">
         <v>961700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>618800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>576400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>594300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>319400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1143,29 +1170,32 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-87300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-186800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-149200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-181800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-119100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,29 +1242,30 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>12400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>115100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-134500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>71900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,29 +1290,32 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-103200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-74100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-185900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-34000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-316300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-47100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1318,13 +1358,13 @@
         <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>1200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1341,8 +1381,8 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1350,40 +1390,43 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-75300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-187200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-317600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-48400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,40 +1540,43 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-75300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-187200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-317600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-48400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1538,40 +1590,43 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-75300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-187200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-317600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-48400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,29 +1840,32 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-115100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>134500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-71900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,40 +1890,43 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-75300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-187200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-317600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-48400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,40 +1990,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-75300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-187200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-317600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-48400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,41 +2137,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>324500</v>
+      </c>
+      <c r="E41" s="3">
         <v>273800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>202300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>485700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>404500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,29 +2185,32 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>198800</v>
+      </c>
+      <c r="E42" s="3">
         <v>304700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>327900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>253000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>121400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>280100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2226,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2145,29 +2235,32 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1257100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1816100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>62300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>55800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>55500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2276,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,38 +2335,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E45" s="3">
         <v>96800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>62400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>48200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>55100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>75400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,41 +2385,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1861000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2491400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>752500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>559300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>717700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>809400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,28 +2435,31 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>176300</v>
+      </c>
+      <c r="E47" s="3">
         <v>162200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>175900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>367300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>475000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>35500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>828100</v>
       </c>
       <c r="J47" s="3">
         <v>828100</v>
@@ -2362,8 +2467,8 @@
       <c r="K47" s="3">
         <v>828100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>828100</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2380,29 +2485,32 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>7300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2418,8 +2526,8 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2447,8 +2558,8 @@
       <c r="H49" s="3">
         <v>4200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>4200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2465,8 +2576,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,8 +2685,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2577,20 +2697,20 @@
         <v>14700</v>
       </c>
       <c r="E52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F52" s="3">
         <v>10400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8600</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -2598,11 +2718,11 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,41 +2785,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2063200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2679900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>950800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>952500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1215900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>866900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>856400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>828700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>829200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,29 +2877,30 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E57" s="3">
         <v>27500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2785,8 +2916,8 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2794,8 +2925,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2805,30 +2939,30 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>21400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,41 +2975,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1568600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2124600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>344500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>206000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>175100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>133300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,41 +3025,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1598700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2152000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>372600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>230200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>195900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>173000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,13 +3075,16 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="E61" s="3">
         <v>19900</v>
@@ -2953,11 +3096,11 @@
         <v>19900</v>
       </c>
       <c r="H61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="I61" s="3">
         <v>24300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2982,28 +3125,31 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E62" s="3">
         <v>18100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>290000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>685300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>80700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>29000</v>
       </c>
       <c r="J62" s="3">
         <v>29000</v>
@@ -3011,8 +3157,8 @@
       <c r="K62" s="3">
         <v>29000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>29000</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,41 +3325,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1636300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2190100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>415400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>544100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>904900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>281900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,40 +3595,43 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1796200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1692000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1616700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1429500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1395000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1077400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,40 +3795,43 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>426900</v>
+      </c>
+      <c r="E76" s="3">
         <v>489800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>535400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>408400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>311000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>585000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>793500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>797900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>800200</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,40 +3950,43 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-75300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-187200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-317600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-48400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,29 +4022,30 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>800</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4061,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,35 +4320,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-57000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-80200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-45100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-64200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-92900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4190,11 +4411,11 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4210,8 +4431,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,34 +4540,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E94" s="3">
         <v>36500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-106500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-242300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>170900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-257500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -4351,8 +4581,8 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,41 +4810,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>284400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>662500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>29000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>829200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,41 +4910,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>97700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-283500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>81200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>312200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
   <si>
     <t>CLOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,32 +737,35 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>856800</v>
+      </c>
+      <c r="E8" s="3">
         <v>846700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>874400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>432000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>427200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>412500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,8 +781,8 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -786,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1065,23 +1088,23 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>800</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
       <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1097,8 +1120,8 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,43 +1149,44 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>930700</v>
+      </c>
+      <c r="E17" s="3">
         <v>949200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>961700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>618800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>576400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>594300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>319400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1173,32 +1200,35 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-102500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-87300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-186800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-149200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-181800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-119100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,32 +1276,33 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>115100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-134500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>71900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,32 +1327,35 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-103200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-74100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-185900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-34000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-316300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-47100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1361,13 +1401,13 @@
         <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>1200</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1384,8 +1424,8 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1393,43 +1433,46 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-104200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-75300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-187200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-317600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-48400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,43 +1592,46 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-104200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-75300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-187200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-317600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-48400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1593,43 +1645,46 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-104200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-75300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-187200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-317600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-48400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,32 +1910,35 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-115100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>134500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-71900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,43 +1963,46 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-104200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-75300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-187200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-317600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-48400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,43 +2069,46 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-104200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-75300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-187200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-317600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-48400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,44 +2224,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>382900</v>
+      </c>
+      <c r="E41" s="3">
         <v>324500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>273800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>202300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>485700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>404500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,32 +2275,35 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>340800</v>
+      </c>
+      <c r="E42" s="3">
         <v>198800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>304700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>327900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>253000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>121400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>280100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2319,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2238,32 +2328,35 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>667900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1257100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1816100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>62300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>55800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>55500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2372,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,41 +2434,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E45" s="3">
         <v>80700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>96800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>62400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>48200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>55100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>75400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,44 +2487,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1460000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1861000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2491400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>752500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>559300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>717700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>809400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,31 +2540,34 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E47" s="3">
         <v>176300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>162200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>175900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>367300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>475000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>35500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>828100</v>
       </c>
       <c r="K47" s="3">
         <v>828100</v>
@@ -2470,8 +2575,8 @@
       <c r="L47" s="3">
         <v>828100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>828100</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2488,32 +2593,35 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E48" s="3">
         <v>6900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2637,8 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2561,8 +2672,8 @@
       <c r="I49" s="3">
         <v>4200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>4200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2579,8 +2690,8 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,32 +2805,35 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="E52" s="3">
         <v>14700</v>
       </c>
       <c r="F52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G52" s="3">
         <v>10400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8600</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
@@ -2721,11 +2841,11 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,44 +2911,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1557700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2063200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2679900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>950800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>952500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1215900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>866900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>856400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>828700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>829200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,32 +3008,33 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E57" s="3">
         <v>30100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2919,8 +3050,8 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -2928,8 +3059,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,8 +3073,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2949,23 +3083,23 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>21400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,44 +3112,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1090600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1568600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2124600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>344500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>206000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>175100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>133300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,44 +3165,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1128300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1598700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2152000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>372600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>230200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>195900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>173000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3087,7 +3230,7 @@
         <v>20000</v>
       </c>
       <c r="E61" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="F61" s="3">
         <v>19900</v>
@@ -3099,11 +3242,11 @@
         <v>19900</v>
       </c>
       <c r="I61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J61" s="3">
         <v>24300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3128,31 +3271,34 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E62" s="3">
         <v>17700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>290000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>685300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>80700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>29000</v>
       </c>
       <c r="K62" s="3">
         <v>29000</v>
@@ -3160,8 +3306,8 @@
       <c r="L62" s="3">
         <v>29000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>29000</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,44 +3483,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1165700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1636300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2190100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>415400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>544100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>904900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>281900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,43 +3769,46 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1871500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1796200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1692000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1616700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1429500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1395000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1077400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,43 +3981,46 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E76" s="3">
         <v>426900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>489800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>535400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>408400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>311000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>585000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>793500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>797900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>800200</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,43 +4145,46 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-104200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-75300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-187200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-317600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-48400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4032,23 +4231,23 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>800</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4064,8 +4263,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,38 +4537,41 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-39200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-57000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-80200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-45100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-64200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-92900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,13 +4613,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
@@ -4414,11 +4635,11 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4434,8 +4655,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,37 +4770,40 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E94" s="3">
         <v>89400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>36500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-106500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-242300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>170900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-257500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4584,8 +4814,8 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,44 +5056,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>284400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-25500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>662500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>29000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>829200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E102" s="3">
         <v>50600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>97700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-283500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>81200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>312200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
   <si>
     <t>CLOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,35 +740,38 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>898800</v>
+      </c>
+      <c r="E8" s="3">
         <v>856800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>846700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>874400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>432000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>427200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>412500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -784,8 +787,8 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -793,8 +796,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +932,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,31 +1042,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-23300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1079,35 +1098,38 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>600</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>600</v>
       </c>
       <c r="F15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>800</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1145,8 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1132,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,46 +1175,47 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>982600</v>
+      </c>
+      <c r="E17" s="3">
         <v>930700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>949200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>961700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>618800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>576400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>594300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>319400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1203,35 +1229,38 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-73900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-102500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-87300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-186800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-149200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-181800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-119100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,35 +1309,36 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>115100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-134500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>71900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,35 +1363,38 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-84800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-74300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-103200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-74100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-185900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-34000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-316300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-47100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,13 +1419,16 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1404,13 +1443,13 @@
         <v>400</v>
       </c>
       <c r="I22" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>1200</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1427,8 +1466,8 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1436,46 +1475,49 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-75300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-104200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-75300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-187200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-317600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-48400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1531,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,8 +1587,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,46 +1643,49 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-75300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-104200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-75300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-187200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-317600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-48400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1648,46 +1699,49 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-75300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-104200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-75300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-187200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-317600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-48400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1701,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,35 +1979,38 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-115100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>134500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-71900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,46 +2035,49 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-75300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-104200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-75300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-187200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-317600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-48400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,46 +2147,49 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-75300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-104200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-75300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-187200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-317600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-48400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -2125,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,47 +2310,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E41" s="3">
         <v>382900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>324500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>273800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>202300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>485700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>404500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,35 +2364,38 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>331500</v>
+      </c>
+      <c r="E42" s="3">
         <v>340800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>198800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>304700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>327900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>253000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>121400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>280100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2411,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2331,35 +2420,38 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E43" s="3">
         <v>667900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1257100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1816100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>62300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>55800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>55500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2375,8 +2467,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2384,8 +2476,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,44 +2532,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E45" s="3">
         <v>68500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>80700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>96800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>62400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>55100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>75400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,47 +2588,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1460000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1861000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2491400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>752500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>559300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>717700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>809400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,34 +2644,37 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>138100</v>
+      </c>
+      <c r="E47" s="3">
         <v>71900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>176300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>162200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>175900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>367300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>475000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>35500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>828100</v>
       </c>
       <c r="L47" s="3">
         <v>828100</v>
@@ -2578,8 +2682,8 @@
       <c r="M47" s="3">
         <v>828100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>828100</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2596,35 +2700,38 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E48" s="3">
         <v>6800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,8 +2747,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2649,13 +2756,16 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4200</v>
+        <v>20000</v>
       </c>
       <c r="E49" s="3">
         <v>4200</v>
@@ -2675,8 +2785,8 @@
       <c r="J49" s="3">
         <v>4200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>4200</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2693,8 +2803,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2702,8 +2812,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,35 +2924,38 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E52" s="3">
         <v>14800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>14700</v>
       </c>
       <c r="F52" s="3">
         <v>14700</v>
       </c>
       <c r="G52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="H52" s="3">
         <v>10400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8600</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -2844,11 +2963,11 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2980,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,47 +3036,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>808600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1557700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2063200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2679900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>950800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>952500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1215900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>866900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>856400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>828700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>829200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,35 +3138,36 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E57" s="3">
         <v>37700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,8 +3183,8 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3062,8 +3192,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,8 +3209,8 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3086,23 +3219,23 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>21400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,47 +3248,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>408200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1090600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1568600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2124600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>344500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>206000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>175100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>133300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,47 +3304,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>440700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1128300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1598700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2152000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>372600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>230200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>195900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>173000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,19 +3360,22 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>20000</v>
       </c>
       <c r="F61" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="G61" s="3">
         <v>19900</v>
@@ -3245,11 +3387,11 @@
         <v>19900</v>
       </c>
       <c r="J61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K61" s="3">
         <v>24300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3274,34 +3416,37 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E62" s="3">
         <v>17400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>290000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>685300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>80700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>29000</v>
       </c>
       <c r="L62" s="3">
         <v>29000</v>
@@ -3309,8 +3454,8 @@
       <c r="M62" s="3">
         <v>29000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>29000</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3327,8 +3472,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,47 +3640,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>460900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1165700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1636300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2190100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>415400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>544100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>904900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>281900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,46 +3942,49 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1955600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1871500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1796200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1692000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1616700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1429500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1395000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1077400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3825,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,46 +4166,49 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>347700</v>
+      </c>
+      <c r="E76" s="3">
         <v>392000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>426900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>489800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>535400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>408400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>311000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>585000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>793500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>797900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>800200</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -4037,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,46 +4339,49 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-75300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-104200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-75300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-187200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-317600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-48400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -4201,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,35 +4419,36 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>-800</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
       </c>
       <c r="F83" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>800</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4266,8 +4464,8 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4275,8 +4473,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,41 +4753,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-209400</v>
+      </c>
+      <c r="E89" s="3">
         <v>101700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-39200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-57000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-80200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-45100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-64200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-92900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,16 +4833,17 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -4638,11 +4858,11 @@
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4658,8 +4878,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4667,8 +4887,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,40 +4999,43 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>89400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>36500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-106500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-242300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>170900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-257500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4817,8 +5046,8 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4826,8 +5055,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,8 +5301,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5068,38 +5313,38 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>284400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-25500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>662500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>829200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5357,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,47 +5413,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-196700</v>
+      </c>
+      <c r="E102" s="3">
         <v>58400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>50600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>97700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-283500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>81200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>312200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,38 +744,41 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>527800</v>
+      </c>
+      <c r="E8" s="3">
         <v>898800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>856800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>846700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>874400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>432000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>427200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>412500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,8 +794,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -799,8 +803,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,8 +862,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,8 +946,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,17 +1062,20 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>-23300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1091,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1101,38 +1121,41 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>600</v>
+      <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F15" s="3">
         <v>600</v>
       </c>
       <c r="G15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,8 +1171,8 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,49 +1202,50 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600400</v>
+      </c>
+      <c r="E17" s="3">
         <v>982600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>930700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>949200</v>
       </c>
-      <c r="G17" s="3">
-        <v>961700</v>
-      </c>
       <c r="H17" s="3">
+        <v>961900</v>
+      </c>
+      <c r="I17" s="3">
         <v>618800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>576400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>594300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>319400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1232,38 +1259,41 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-83800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-73900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-102500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-87300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-87500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-186800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-149200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-181800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-119100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,38 +1343,39 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>115100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-134500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>71900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,38 +1400,41 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-84800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-74300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-103200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-74100</v>
-      </c>
       <c r="H21" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-185900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-34000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-316300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-47100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,16 +1459,19 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
@@ -1446,13 +1486,13 @@
         <v>400</v>
       </c>
       <c r="J22" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>1200</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1469,8 +1509,8 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1478,49 +1518,52 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-84000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-75300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-104200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-75300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-187200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-317600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-48400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1534,8 +1577,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,49 +1695,52 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-84000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-75300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-104200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-75300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-187200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-317600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-48400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1702,49 +1754,52 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-84000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-75300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-104200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-75300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-187200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-317600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-48400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,38 +2049,41 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-115100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>134500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-71900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,49 +2108,52 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-84000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-75300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-104200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-75300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-187200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-317600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-48400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,49 +2226,52 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-84000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-75300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-104200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-75300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-187200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-317600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-48400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,50 +2397,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E41" s="3">
         <v>103800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>382900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>324500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>273800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>202300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>485700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>404500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,38 +2454,41 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>306400</v>
+      </c>
+      <c r="E42" s="3">
         <v>331500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>340800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>198800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>304700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>327900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>253000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>121400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>280100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2504,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2423,38 +2513,41 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>687500</v>
+      </c>
+      <c r="E43" s="3">
         <v>147200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>667900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1257100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1816100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>62300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>55800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>55500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>49400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,8 +2563,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2479,8 +2572,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,47 +2631,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E45" s="3">
         <v>42600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>68500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>80700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>96800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>62400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>48200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>55100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>75400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,50 +2690,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1274300</v>
+      </c>
+      <c r="E46" s="3">
         <v>625000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1460000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1861000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2491400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>752500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>559300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>717700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>809400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,37 +2749,40 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E47" s="3">
         <v>138100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>71900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>176300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>162200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>175900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>367300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>475000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>35500</v>
-      </c>
-      <c r="L47" s="3">
-        <v>828100</v>
       </c>
       <c r="M47" s="3">
         <v>828100</v>
@@ -2685,8 +2790,8 @@
       <c r="N47" s="3">
         <v>828100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>828100</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
@@ -2703,38 +2808,41 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E48" s="3">
         <v>9800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,8 +2858,8 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2759,8 +2867,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2768,7 +2879,7 @@
         <v>20000</v>
       </c>
       <c r="E49" s="3">
-        <v>4200</v>
+        <v>20000</v>
       </c>
       <c r="F49" s="3">
         <v>4200</v>
@@ -2788,8 +2899,8 @@
       <c r="K49" s="3">
         <v>4200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>4200</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2806,8 +2917,8 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,38 +3044,41 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E52" s="3">
         <v>15700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>14700</v>
       </c>
       <c r="G52" s="3">
         <v>14700</v>
       </c>
       <c r="H52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I52" s="3">
         <v>10400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8600</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -2966,11 +3086,11 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,50 +3162,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1453600</v>
+      </c>
+      <c r="E54" s="3">
         <v>808600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1557700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2063200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2679900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>950800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>952500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1215900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>866900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>856400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>828700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>829200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,38 +3269,39 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E57" s="3">
         <v>32400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3186,8 +3317,8 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3195,22 +3326,25 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3222,23 +3356,23 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>21400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3251,50 +3385,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>408200</v>
+        <v>1062900</v>
       </c>
       <c r="E59" s="3">
+        <v>399100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1090600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1568600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2124600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>344500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>206000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>175100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>133300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,50 +3444,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>440700</v>
+        <v>1110400</v>
       </c>
       <c r="E60" s="3">
+        <v>431500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1128300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1598700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2152000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>372600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>230200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>195900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>173000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,8 +3503,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3372,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>20000</v>
       </c>
       <c r="G61" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="H61" s="3">
         <v>19900</v>
@@ -3390,11 +3533,11 @@
         <v>19900</v>
       </c>
       <c r="K61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="L61" s="3">
         <v>24300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3419,37 +3562,40 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E62" s="3">
         <v>20200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>290000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>685300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>80700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>29000</v>
       </c>
       <c r="M62" s="3">
         <v>29000</v>
@@ -3457,8 +3603,8 @@
       <c r="N62" s="3">
         <v>29000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>29000</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,50 +3798,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>460900</v>
+        <v>1130500</v>
       </c>
       <c r="E66" s="3">
+        <v>451700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1165700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1636300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2190100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>415400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>544100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>904900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>281900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,49 +4116,52 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1955600</v>
+        <v>-2019000</v>
       </c>
       <c r="E72" s="3">
+        <v>-1946400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1871500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1796200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1692000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1616700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1429500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1395000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1077400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,49 +4352,52 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>347700</v>
+        <v>323100</v>
       </c>
       <c r="E76" s="3">
+        <v>356900</v>
+      </c>
+      <c r="F76" s="3">
         <v>392000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>426900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>489800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>535400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>408400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>311000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>585000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>793500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>797900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>800200</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,49 +4534,52 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-84000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-75300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-104200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-75300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-187200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-317600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-48400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,38 +4618,39 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>-800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>600</v>
       </c>
       <c r="G83" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4467,8 +4666,8 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,44 +4970,47 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-209400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>101700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-39200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-57000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-80200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-45100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-64200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-92900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,19 +5054,20 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -4861,11 +5082,11 @@
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4881,8 +5102,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,43 +5229,46 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E94" s="3">
         <v>12700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>89400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>36500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-106500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-242300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>170900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-257500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -5049,8 +5279,8 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,50 +5547,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>-2100</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>284400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-25500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>662500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>29000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>829200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5606,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5416,50 +5665,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-196700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>58400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>50600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>97700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-283500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>81200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>312200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="92">
   <si>
     <t>CLOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,41 +748,44 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>513600</v>
+      </c>
+      <c r="E8" s="3">
         <v>527800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>898800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>856800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>846700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>874400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>432000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>427200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>412500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +801,8 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -806,8 +810,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,8 +872,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,8 +960,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,25 +1082,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-23300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1094,8 +1114,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1124,41 +1144,44 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>600</v>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G15" s="3">
         <v>600</v>
       </c>
       <c r="H15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>800</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1197,8 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,52 +1229,53 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>542400</v>
+      </c>
+      <c r="E17" s="3">
         <v>600400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>982600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>930700</v>
       </c>
-      <c r="G17" s="3">
-        <v>949200</v>
-      </c>
       <c r="H17" s="3">
+        <v>949400</v>
+      </c>
+      <c r="I17" s="3">
         <v>961900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>618800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>576400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>594300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>319400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1262,41 +1289,44 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-72600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-83800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-73900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-102500</v>
-      </c>
       <c r="H18" s="3">
+        <v>-102700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-87500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-186800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-149200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-181800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-119100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,8 +1377,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1353,32 +1387,32 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>115100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-134500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>71900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1403,41 +1437,44 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-72300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-84800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-74300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-103200</v>
-      </c>
       <c r="H21" s="3">
+        <v>-103400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-74300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-185900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-34000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-316300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-47100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,8 +1499,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1471,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
@@ -1489,13 +1529,13 @@
         <v>400</v>
       </c>
       <c r="K22" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>1200</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1512,8 +1552,8 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1521,52 +1561,55 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-72600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-84000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-75300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-104200</v>
-      </c>
       <c r="H23" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-75500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-187200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-317600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-48400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1580,8 +1623,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,52 +1747,55 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-72600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-84000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-75300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-104200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-75500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-187200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-317600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-48400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1757,52 +1809,55 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-72600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-84000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-75300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-104200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-75500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-187200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-317600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-48400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,8 +2119,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2061,32 +2131,32 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-115100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>134500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-71900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2111,52 +2181,55 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-72600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-84000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-75300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-104200</v>
-      </c>
       <c r="H33" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-75500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-187200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-317600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-48400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,52 +2305,55 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-72600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-84000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-75300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-104200</v>
-      </c>
       <c r="H35" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-75500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-187200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-317600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-48400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2288,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,53 +2484,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>310100</v>
+      </c>
+      <c r="E41" s="3">
         <v>190600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>103800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>382900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>324500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>273800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>202300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>485700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>404500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,41 +2544,44 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>291800</v>
+      </c>
+      <c r="E42" s="3">
         <v>306400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>331500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>340800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>198800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>304700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>327900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>253000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>121400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>280100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2597,8 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2516,41 +2606,44 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>506800</v>
+      </c>
+      <c r="E43" s="3">
         <v>687500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>147200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>667900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1257100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1816100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>62300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>55800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>55500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>49400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,8 +2659,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2575,8 +2668,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2634,50 +2730,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E45" s="3">
         <v>89900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>68500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>80700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>96800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>62400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>55100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>75400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,53 +2792,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1128900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1274300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>625000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1460000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1861000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2491400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>752500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>559300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>717700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>809400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,40 +2854,43 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E47" s="3">
         <v>135900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>138100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>71900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>176300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>162200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>175900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>367300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>475000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>35500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>828100</v>
       </c>
       <c r="N47" s="3">
         <v>828100</v>
@@ -2793,8 +2898,8 @@
       <c r="O47" s="3">
         <v>828100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>828100</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
@@ -2811,41 +2916,44 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E48" s="3">
         <v>8700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2969,8 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2870,19 +2978,22 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="E49" s="3">
         <v>20000</v>
       </c>
       <c r="F49" s="3">
-        <v>4200</v>
+        <v>20000</v>
       </c>
       <c r="G49" s="3">
         <v>4200</v>
@@ -2902,8 +3013,8 @@
       <c r="L49" s="3">
         <v>4200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>4200</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2920,8 +3031,8 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,41 +3164,44 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E52" s="3">
         <v>14800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>14700</v>
       </c>
       <c r="H52" s="3">
         <v>14700</v>
       </c>
       <c r="I52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J52" s="3">
         <v>10400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8600</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -3089,11 +3209,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,53 +3288,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1258000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1453600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>808600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1557700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2063200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2679900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>950800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>952500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1215900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>866900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>856400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>828700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>829200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,41 +3400,42 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E57" s="3">
         <v>47500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3320,8 +3451,8 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3329,8 +3460,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3359,23 +3493,23 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>21400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3388,53 +3522,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>867800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1062900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>399100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1090600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1568600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2124600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>344500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>206000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>175100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>133300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,53 +3584,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>907800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1110400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>431500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1128300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1598700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2152000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>372600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>230200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>195900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>173000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,8 +3646,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>20000</v>
       </c>
       <c r="H61" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="I61" s="3">
         <v>19900</v>
@@ -3536,11 +3679,11 @@
         <v>19900</v>
       </c>
       <c r="L61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="M61" s="3">
         <v>24300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3565,40 +3708,43 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E62" s="3">
         <v>20100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>290000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>685300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>80700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>29000</v>
       </c>
       <c r="N62" s="3">
         <v>29000</v>
@@ -3606,8 +3752,8 @@
       <c r="O62" s="3">
         <v>29000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>29000</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,53 +3956,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>927400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1130500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>451700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1165700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1636300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2190100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>415400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>544100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>904900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>281900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,52 +4290,55 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2047900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2019000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1946400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1871500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1796200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1692000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1616700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1429500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1395000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1077400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,52 +4538,55 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>330600</v>
+      </c>
+      <c r="E76" s="3">
         <v>323100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>356900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>392000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>426900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>489800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>535400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>408400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>311000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>585000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>793500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>797900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800200</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,52 +4729,55 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-72600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-84000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-75300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-104200</v>
-      </c>
       <c r="H81" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-75500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-187200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-317600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-48400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,41 +4817,42 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>-800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>600</v>
       </c>
       <c r="H83" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>800</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4669,8 +4868,8 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,47 +5187,50 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E89" s="3">
         <v>79000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-209400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>101700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-39200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-57000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-80200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-45100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-64200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-92900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,22 +5275,23 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -5085,11 +5306,11 @@
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5105,8 +5326,8 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,46 +5459,49 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E94" s="3">
         <v>10200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>89400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>36500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-106500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-242300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>170900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-257500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -5282,8 +5512,8 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,53 +5793,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>284400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>662500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>29000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>829200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5668,53 +5917,56 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E102" s="3">
         <v>87100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-196700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>97700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-283500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>81200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>312200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>27900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CLOV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
   <si>
     <t>CLOV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,44 +752,47 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>482100</v>
+      </c>
+      <c r="E8" s="3">
         <v>513600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>527800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>898800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>856800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>846700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>874400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>432000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>427200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>412500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -804,8 +808,8 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -813,8 +817,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,8 +882,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,8 +974,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,28 +1102,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
         <v>4800</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-23300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1117,8 +1137,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1147,44 +1167,47 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>600</v>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3">
         <v>600</v>
       </c>
       <c r="I15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,8 +1223,8 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,55 +1256,56 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>523500</v>
+      </c>
+      <c r="E17" s="3">
         <v>542400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>982600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>930700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>949400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>961900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>618800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>576400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>594300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>319400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1292,44 +1319,47 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-72600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-83800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-73900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-102700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-87500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-186800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-149200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-181800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-119100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,8 +1411,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,32 +1424,32 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>115100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-134500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>71900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,44 +1474,47 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-27800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-72300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-84800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-74300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-103400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-74300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-185900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-34000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-316300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-47100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,8 +1539,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
@@ -1532,13 +1572,13 @@
         <v>400</v>
       </c>
       <c r="L22" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>1200</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1555,8 +1595,8 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1564,55 +1604,58 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-72600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-84000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-75300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-104400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-75500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-187200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-317600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-48400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1626,8 +1669,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,55 +1799,58 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-72600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-84000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-75300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-104400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-75500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-187200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-317600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-48400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1812,55 +1864,58 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-72600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-84000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-75300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-104400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-75500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-187200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-317600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-48400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,8 +2189,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,32 +2204,32 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-115100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>134500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-71900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,55 +2254,58 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-72600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-84000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-75300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-104400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-75500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-187200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-317600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-48400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,55 +2384,58 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-72600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-84000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-75300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-104400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-75500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-187200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-317600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-48400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,56 +2571,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E41" s="3">
         <v>310100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>190600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>103800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>382900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>324500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>273800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>202300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>485700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>404500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,44 +2634,47 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>268300</v>
+      </c>
+      <c r="E42" s="3">
         <v>291800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>306400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>331500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>340800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>198800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>304700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>327900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>253000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>121400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>280100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2600,8 +2690,8 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2609,44 +2699,47 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>316500</v>
+      </c>
+      <c r="E43" s="3">
         <v>506800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>687500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>147200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>667900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1257100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1816100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>62300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>55800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>55500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>49400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2755,8 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2671,8 +2764,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,53 +2829,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E45" s="3">
         <v>20200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>89900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>68500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>80700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>96800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>75400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,56 +2894,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>915700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1128900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1274300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>625000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1460000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1861000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2491400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>752500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>559300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>717700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>809400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,43 +2959,46 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E47" s="3">
         <v>86500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>135900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>138100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>71900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>176300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>162200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>175900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>367300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>475000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>35500</v>
-      </c>
-      <c r="N47" s="3">
-        <v>828100</v>
       </c>
       <c r="O47" s="3">
         <v>828100</v>
@@ -2901,8 +3006,8 @@
       <c r="P47" s="3">
         <v>828100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
+      <c r="Q47" s="3">
+        <v>828100</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
@@ -2919,44 +3024,47 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E48" s="3">
         <v>8500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2972,8 +3080,8 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -2981,22 +3089,25 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E49" s="3">
         <v>19500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>20000</v>
       </c>
       <c r="F49" s="3">
         <v>20000</v>
       </c>
       <c r="G49" s="3">
-        <v>4200</v>
+        <v>20000</v>
       </c>
       <c r="H49" s="3">
         <v>4200</v>
@@ -3016,8 +3127,8 @@
       <c r="M49" s="3">
         <v>4200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>4200</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -3034,8 +3145,8 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,44 +3284,47 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E52" s="3">
         <v>14600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>14700</v>
       </c>
       <c r="I52" s="3">
         <v>14700</v>
       </c>
       <c r="J52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K52" s="3">
         <v>10400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8600</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -3212,11 +3332,11 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,56 +3414,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1059800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1258000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1453600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>808600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1557700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2063200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2679900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>950800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>952500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1215900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>866900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>856400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>828700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>829200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,44 +3531,45 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E57" s="3">
         <v>39900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3454,8 +3585,8 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3463,8 +3594,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3496,23 +3630,23 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>21400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3525,56 +3659,59 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>683400</v>
+      </c>
+      <c r="E59" s="3">
         <v>867800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1062900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>399100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1090600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1568600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2124600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>344500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>206000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>175100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>133300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,56 +3724,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>718700</v>
+      </c>
+      <c r="E60" s="3">
         <v>907800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1110400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>431500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1128300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1598700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2152000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>372600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>230200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>195900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>173000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3789,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3664,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>20000</v>
       </c>
       <c r="I61" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="J61" s="3">
         <v>19900</v>
@@ -3682,11 +3825,11 @@
         <v>19900</v>
       </c>
       <c r="M61" s="3">
+        <v>19900</v>
+      </c>
+      <c r="N61" s="3">
         <v>24300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3711,43 +3854,46 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E62" s="3">
         <v>19700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>290000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>685300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>29000</v>
       </c>
       <c r="O62" s="3">
         <v>29000</v>
@@ -3755,8 +3901,8 @@
       <c r="P62" s="3">
         <v>29000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>29000</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,56 +4114,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>737900</v>
+      </c>
+      <c r="E66" s="3">
         <v>927400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1130500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>451700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1165700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1636300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2190100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>415400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>544100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>904900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>281900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,55 +4464,58 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2089300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2047900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2019000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1946400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1871500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1796200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1692000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1616700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1429500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1395000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1077400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
+      <c r="R72" s="3">
+        <v>0</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,55 +4724,58 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>321900</v>
+      </c>
+      <c r="E76" s="3">
         <v>330600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>323100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>356900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>392000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>426900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>489800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>535400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>408400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>311000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>585000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>793500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>797900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800200</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
+      <c r="R76" s="3">
+        <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,55 +4924,58 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-72600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-84000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-75300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-104400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-75500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-187200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-317600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-48400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,44 +5016,45 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>-800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>600</v>
       </c>
       <c r="I83" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>800</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4871,8 +5070,8 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,50 +5404,53 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E89" s="3">
         <v>53200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>79000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-209400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>101700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-39200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-57000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-80200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-45100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-64200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-92900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,25 +5496,26 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -5309,11 +5530,11 @@
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5329,8 +5550,8 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,49 +5689,52 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E94" s="3">
         <v>66500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>89400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>36500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-106500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-242300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>170900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-257500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -5515,8 +5745,8 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,56 +6039,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>284400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>662500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>29000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>829200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5858,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5920,56 +6169,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E102" s="3">
         <v>119500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>87100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-196700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>58400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>50600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>97700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-283500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>81200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>312200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>27900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
